--- a/medicine/Sexualité et sexologie/Louis-Charles_Royer/Louis-Charles_Royer.xlsx
+++ b/medicine/Sexualité et sexologie/Louis-Charles_Royer/Louis-Charles_Royer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis-Charles Royer, né le 7 février 1885 au Pont-de-Beauvoisin (Isère) et mort le 24 novembre 1970 dans le 17e arrondissement de Paris[1],  est un romancier français, spécialisé dans la littérature érotique dont les œuvres sont souvent publiées aux éditions Rabelais, et pour lequel Jean-Gabriel Domergue et Jean-Denis Maillart ont dessiné plusieurs couvertures.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis-Charles Royer, né le 7 février 1885 au Pont-de-Beauvoisin (Isère) et mort le 24 novembre 1970 dans le 17e arrondissement de Paris,  est un romancier français, spécialisé dans la littérature érotique dont les œuvres sont souvent publiées aux éditions Rabelais, et pour lequel Jean-Gabriel Domergue et Jean-Denis Maillart ont dessiné plusieurs couvertures.
 Ces œuvres, bien qu'elles ne soient plus rééditées depuis les années 1970, sont toujours recherchées et collectionnées par les amateurs de romans érotiques soft. 
 </t>
         </is>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>The Harem
 La Maitresse Noire
